--- a/FAERS ID_AE/High_risk_sexual_behaviour.xlsx
+++ b/FAERS ID_AE/High_risk_sexual_behaviour.xlsx
@@ -136,7 +136,7 @@
     <t>Contraception</t>
   </si>
   <si>
-    <t>Surgery;Seasonal Allergy;Implant Site Pain;Drug Hypersensitivity;General Anaesthesia;Pruritus Allergic;Food Allergy;Menstrual Disorder;Device Deployment Issue;Complication Associated With Device;Complication Of Device Removal;Limb Mass;Incorrect Product Administration Duration;Dermatitis Allergic;Drug Abuse;High Risk Sexual Behaviour</t>
+    <t>Implant Site Pain;Seasonal Allergy;Limb Mass;Drug Hypersensitivity;Complication Associated With Device;Dermatitis Allergic;Menstrual Disorder;Complication Of Device Removal;Pruritus Allergic;Food Allergy;General Anaesthesia;High Risk Sexual Behaviour;Device Deployment Issue;Drug Abuse;Incorrect Product Administration Duration;Surgery</t>
   </si>
   <si>
     <t>Female</t>
@@ -178,7 +178,7 @@
     <t>Paroxysmal Nocturnal Haemoglobinuria</t>
   </si>
   <si>
-    <t>Gonococcal Infection;High Risk Sexual Behaviour;Hiv Infection</t>
+    <t>High Risk Sexual Behaviour;Hiv Infection;Gonococcal Infection</t>
   </si>
   <si>
     <t>23-JUL-2018</t>
@@ -199,7 +199,7 @@
     <t>Depression</t>
   </si>
   <si>
-    <t>Dizziness;Nausea;Impulsive Behaviour;High Risk Sexual Behaviour;Headache</t>
+    <t>Nausea;Headache;High Risk Sexual Behaviour;Impulsive Behaviour;Dizziness</t>
   </si>
   <si>
     <t>02-FEB-2018</t>
@@ -211,7 +211,7 @@
     <t>65.25 KG</t>
   </si>
   <si>
-    <t>Clonazepam;Bupropion Hydrochloride Xl;Carbamazepine;Magnesium;Fish Oil;Vitamins;Duloxetine Hydrochloride;Riboflavin;Lamotrigine</t>
+    <t>Fish Oil;Riboflavin;Duloxetine Hydrochloride;Vitamins;Clonazepam;Bupropion Hydrochloride Xl;Magnesium;Lamotrigine;Carbamazepine</t>
   </si>
   <si>
     <t>Propecia</t>
@@ -223,7 +223,7 @@
     <t>Alopecia</t>
   </si>
   <si>
-    <t>Erectile Dysfunction;Anxiety;Sexual Dysfunction;Orgasmic Sensation Decreased;Emotional Distress;High Risk Sexual Behaviour;Upper-Airway Cough Syndrome;Testicular Pain;Loss Of Libido;Semen Analysis Abnormal;Nasal Polyps</t>
+    <t>Orgasmic Sensation Decreased;Testicular Pain;Anxiety;Upper-Airway Cough Syndrome;Emotional Distress;Nasal Polyps;Erectile Dysfunction;Semen Analysis Abnormal;Loss Of Libido;High Risk Sexual Behaviour;Sexual Dysfunction</t>
   </si>
   <si>
     <t>Disabled</t>
@@ -253,7 +253,7 @@
     <t>Alopecia;Androgenetic Alopecia</t>
   </si>
   <si>
-    <t>Dysuria;Wrong Technique In Product Usage Process;Sexual Dysfunction;Anxiety;Pain In Jaw;Chlamydial Infection;Pain In Extremity;Headache;Facial Paralysis;Cognitive Disorder;Weight Increased;Product Administration Error;Fatigue;Organic Erectile Dysfunction;Erectile Dysfunction;High Risk Sexual Behaviour</t>
+    <t>Organic Erectile Dysfunction;Weight Increased;Facial Paralysis;Pain In Jaw;Sexual Dysfunction;Wrong Technique In Product Usage Process;Fatigue;Headache;Erectile Dysfunction;High Risk Sexual Behaviour;Pain In Extremity;Anxiety;Chlamydial Infection;Product Administration Error;Dysuria;Cognitive Disorder</t>
   </si>
   <si>
     <t>Non-Serious</t>
@@ -289,7 +289,7 @@
     <t>Product Used For Unknown Indication</t>
   </si>
   <si>
-    <t>Menstruation Delayed;Wrong Technique In Product Usage Process;Inappropriate Schedule Of Product Administration;High Risk Sexual Behaviour;Product Dose Omission;Malaise</t>
+    <t>Malaise;Wrong Technique In Product Usage Process;Inappropriate Schedule Of Product Administration;Product Dose Omission;Menstruation Delayed;High Risk Sexual Behaviour</t>
   </si>
   <si>
     <t>02-MAR-2016</t>
@@ -304,30 +304,30 @@
     <t>US-JNJFOC-20160200048</t>
   </si>
   <si>
+    <t>Product Dose Omission;High Risk Sexual Behaviour</t>
+  </si>
+  <si>
+    <t>15-MAY-2013</t>
+  </si>
+  <si>
+    <t>25-MAY-2015</t>
+  </si>
+  <si>
+    <t>20 YR</t>
+  </si>
+  <si>
+    <t>70.31 KG</t>
+  </si>
+  <si>
+    <t>14-APR-2015</t>
+  </si>
+  <si>
+    <t>US-JNJFOC-20130509644</t>
+  </si>
+  <si>
     <t>High Risk Sexual Behaviour;Product Dose Omission</t>
   </si>
   <si>
-    <t>15-MAY-2013</t>
-  </si>
-  <si>
-    <t>25-MAY-2015</t>
-  </si>
-  <si>
-    <t>20 YR</t>
-  </si>
-  <si>
-    <t>70.31 KG</t>
-  </si>
-  <si>
-    <t>14-APR-2015</t>
-  </si>
-  <si>
-    <t>US-JNJFOC-20130509644</t>
-  </si>
-  <si>
-    <t>Product Dose Omission;High Risk Sexual Behaviour</t>
-  </si>
-  <si>
     <t>24-AUG-2014</t>
   </si>
   <si>
@@ -364,7 +364,7 @@
     <t>Asthma;Contraception;Ovarian Cyst</t>
   </si>
   <si>
-    <t>Breast Pain;Dysmenorrhoea;Wrong Technique In Product Usage Process;High Risk Sexual Behaviour;Product Use In Unapproved Indication;Fatigue</t>
+    <t>Product Use In Unapproved Indication;Dysmenorrhoea;Fatigue;Wrong Technique In Product Usage Process;Breast Pain;High Risk Sexual Behaviour</t>
   </si>
   <si>
     <t>28 YR</t>
@@ -382,243 +382,246 @@
     <t>US-JNJFOC-20130605100</t>
   </si>
   <si>
-    <t>Erectile Dysfunction;Sexual Dysfunction;Headache;Spinal Operation;Cervical Radiculopathy;Skin Abrasion;Testicular Pain;Arthralgia;Otitis Media;Varicose Vein;Nipple Swelling;Pharyngitis;Coeliac Disease;Back Pain;High Risk Sexual Behaviour;Sinus Disorder;Chest Pain;Libido Decreased;Ligament Sprain;Lumbar Radiculopathy;Epididymitis;Dermatitis Contact;Upper Respiratory Tract Infection;Gynaecomastia;Insomnia;Blood Pressure Increased;Hypothyroidism;Bipolar Disorder;Attention Deficit/Hyperactivity Disorder;Palpitations</t>
+    <t>Gynaecomastia;Dermatitis Contact;Palpitations;Sexual Dysfunction;Ligament Sprain;Back Pain;Epididymitis;Chest Pain;Cervical Radiculopathy;Attention Deficit/Hyperactivity Disorder;Coeliac Disease;Spinal Operation;Upper Respiratory Tract Infection;Libido Decreased;Lumbar Radiculopathy;High Risk Sexual Behaviour;Sinus Disorder;Hypothyroidism;Arthralgia;Testicular Pain;Headache;Varicose Vein;Nipple Swelling;Pharyngitis;Blood Pressure Increased;Bipolar Disorder;Skin Abrasion;Otitis Media;Insomnia;Erectile Dysfunction</t>
+  </si>
+  <si>
+    <t>Hospitalized;Other Outcomes</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>20-APR-2015</t>
+  </si>
+  <si>
+    <t>114.74 KG</t>
+  </si>
+  <si>
+    <t>17-APR-2015</t>
+  </si>
+  <si>
+    <t>16-MAY-2013</t>
+  </si>
+  <si>
+    <t>US-009507513-1305USA009444</t>
+  </si>
+  <si>
+    <t>Paroxetine</t>
+  </si>
+  <si>
+    <t>Alcohol Abuse;Abnormal Behaviour;High Risk Sexual Behaviour</t>
+  </si>
+  <si>
+    <t>05-MAR-2015</t>
+  </si>
+  <si>
+    <t>Mylan</t>
+  </si>
+  <si>
+    <t>20-FEB-2015</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>GB-MYLANLABS-2015M1006693</t>
+  </si>
+  <si>
+    <t>Brookwell L, Hogan C, Healy D, Mangin D. Ninety-three cases of alcohol dependence following SSRI treatment. Int-J-Risk-Saf-Med 2014; 26(2):99-107.</t>
+  </si>
+  <si>
+    <t>Citalopram</t>
+  </si>
+  <si>
+    <t>Citalopram Hydrobromide</t>
+  </si>
+  <si>
+    <t>Loss Of Libido;High Risk Sexual Behaviour;Somnambulism;Amnesia;Crying;Alcohol Interaction;Anger;Nightmare;Affect Lability;Loss Of Employment;Physical Assault</t>
+  </si>
+  <si>
+    <t>GB-MYLANLABS-2015M1006706</t>
+  </si>
+  <si>
+    <t>Proscar;Propecia</t>
+  </si>
+  <si>
+    <t>Finasteride;Finasteride;Finasteride</t>
+  </si>
+  <si>
+    <t>Androgenetic Alopecia</t>
+  </si>
+  <si>
+    <t>Prostatitis;Testicular Pain;Fatigue;High Risk Sexual Behaviour;Painful Ejaculation;Tinea Capitis;Weight Decreased;Off Label Use;Dysuria;Erectile Dysfunction;Anogenital Dysplasia;Anogenital Warts;Sexual Dysfunction;Depression;Anxiety;Asthma;Ear Disorder;Skin Abrasion;Proctalgia;Crohn'S Disease;Skin Disorder;Wrong Technique In Product Usage Process</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>24-OCT-2014</t>
+  </si>
+  <si>
+    <t>74.83 KG</t>
+  </si>
+  <si>
+    <t>21-OCT-2014</t>
+  </si>
+  <si>
+    <t>US-009507513-1305USA009944</t>
+  </si>
+  <si>
+    <t>High Risk Sexual Behaviour;Sinusitis;Drug Ineffective;Tinea Cruris;Fungal Infection;Temperature Intolerance;Intervertebral Disc Degeneration;Testicular Disorder;Back Pain;Weight Gain Poor;Fatigue;Weight Decreased;Acne;Testicular Atrophy;Sexual Dysfunction;Hypotension;Hypogonadism;Upper Respiratory Tract Infection;Libido Decreased;Oestradiol Decreased;Erectile Dysfunction</t>
+  </si>
+  <si>
+    <t>14-NOV-2008</t>
+  </si>
+  <si>
+    <t>23-OCT-2014</t>
+  </si>
+  <si>
+    <t>81.18 KG</t>
+  </si>
+  <si>
+    <t>03-MAY-2013</t>
+  </si>
+  <si>
+    <t>US-009507513-1305USA000405</t>
+  </si>
+  <si>
+    <t>Amphetamine</t>
+  </si>
+  <si>
+    <t>Stress At Work;Depression;Haematuria;Drug Abuse;Urinary Incontinence;Euphoric Mood;Urethral Fistula;Nephrolithiasis;Foreign Body In Reproductive Tract;High Risk Sexual Behaviour;Orchitis;Urinary Tract Infection;Orchidectomy;Family Stress;Urinary Tract Injury</t>
+  </si>
+  <si>
+    <t>Hospitalized</t>
+  </si>
+  <si>
+    <t>14-OCT-2014</t>
+  </si>
+  <si>
+    <t>48 YR</t>
+  </si>
+  <si>
+    <t>Arbor</t>
+  </si>
+  <si>
+    <t>Health Professional ,Literature,Foreign</t>
+  </si>
+  <si>
+    <t>02-OCT-2014</t>
+  </si>
+  <si>
+    <t>ABR_01833_2014</t>
+  </si>
+  <si>
+    <t>Nuvaring</t>
+  </si>
+  <si>
+    <t>Ethinyl Estradiol\Etonogestrel</t>
+  </si>
+  <si>
+    <t>Arthralgia;Deep Vein Thrombosis;Pulmonary Embolism;Conjunctivitis;Pain In Extremity;Exposure To Toxic Agent;Gastrooesophageal Reflux Disease;Fatigue;High Risk Sexual Behaviour;Obesity;Anxiety;Sinusitis;Maternal Exposure Before Pregnancy;Epistaxis;Depression</t>
+  </si>
+  <si>
+    <t>30-DEC-2010</t>
+  </si>
+  <si>
+    <t>31-AUG-2014</t>
+  </si>
+  <si>
+    <t>87.66 KG</t>
+  </si>
+  <si>
+    <t>21-AUG-2014</t>
+  </si>
+  <si>
+    <t>10-FEB-2014</t>
+  </si>
+  <si>
+    <t>US-009507513-1402USA003505</t>
+  </si>
+  <si>
+    <t>High Risk Sexual Behaviour;Anogenital Warts;Maternal Exposure Before Pregnancy;Deep Vein Thrombosis;Stress Urinary Incontinence;Cervical Dysplasia;Pulmonary Embolism;Abortion Induced;Gastrooesophageal Reflux Disease;Urinary Tract Infection</t>
+  </si>
+  <si>
+    <t>Other Outcomes;Disabled;Hospitalized</t>
+  </si>
+  <si>
+    <t>23-NOV-2008</t>
+  </si>
+  <si>
+    <t>06-AUG-2014</t>
+  </si>
+  <si>
+    <t>28-JUL-2014</t>
+  </si>
+  <si>
+    <t>06-NOV-2012</t>
+  </si>
+  <si>
+    <t>US-009507513-1211USA000375</t>
+  </si>
+  <si>
+    <t>Nightmare;Alcohol Interaction;Physical Assault;Somnambulism;Loss Of Libido;Affect Lability;Crying;Amnesia;High Risk Sexual Behaviour;Aggression;Overdose;Job Dissatisfaction;Anger</t>
+  </si>
+  <si>
+    <t>30-JUL-2014</t>
+  </si>
+  <si>
+    <t>39 YR</t>
+  </si>
+  <si>
+    <t>Roxane</t>
+  </si>
+  <si>
+    <t>22-JUL-2014</t>
+  </si>
+  <si>
+    <t>GB-ROXANE LABORATORIES, INC.-2014-RO-01129RO</t>
+  </si>
+  <si>
+    <t>Bronchitis;Ear Pain;Arthralgia;Diverticulum;Pelvic Pain;Breast Mass;Urge Incontinence;Hyperaesthesia;Renal Cyst;Dyspareunia;Menstruation Irregular;Paraesthesia;Dyspnoea Exertional;Urethral Stenosis;Fatigue;High Risk Sexual Behaviour;Stress Urinary Incontinence;Urinary Tract Infection;Deep Vein Thrombosis;Vena Cava Filter Insertion;Hypoaesthesia;Muscle Spasms;Breast Cyst;Blood Cholesterol Increased;Urinary Tract Infection Bacterial;Gastritis;Pain In Extremity;Furuncle;Depression;Amenorrhoea;Sleep Disorder;Anxiety;Cyst;Headache;Foot Deformity;Stress</t>
+  </si>
+  <si>
+    <t>24-JUL-2014</t>
+  </si>
+  <si>
+    <t>87.9 KG</t>
+  </si>
+  <si>
+    <t>21-JUL-2014</t>
+  </si>
+  <si>
+    <t>US-009507513-2010SP040537</t>
+  </si>
+  <si>
+    <t>Post-Traumatic Stress Disorder;Pelvic Pain;High Risk Sexual Behaviour;Neck Pain;Deep Vein Thrombosis;Breast Discharge;Leukocytosis;Pruritus;Vaginal Infection;Impaired Fasting Glucose;Road Traffic Accident;Pulmonary Embolism;Gene Mutation;Suicidal Ideation;Thrombectomy;Ovarian Cyst;Vulvovaginitis;Headache;Insomnia;Pharyngitis;Diarrhoea;Overweight;Thrombolysis;Rhinitis Allergic;Intervertebral Disc Protrusion;Anxiety;Coagulopathy;Breast Pain;Enzyme Abnormality;Depression;Vena Cava Filter Insertion</t>
   </si>
   <si>
     <t>Other Outcomes;Hospitalized</t>
   </si>
   <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>20-APR-2015</t>
-  </si>
-  <si>
-    <t>114.74 KG</t>
-  </si>
-  <si>
-    <t>17-APR-2015</t>
-  </si>
-  <si>
-    <t>16-MAY-2013</t>
-  </si>
-  <si>
-    <t>US-009507513-1305USA009444</t>
-  </si>
-  <si>
-    <t>Paroxetine</t>
-  </si>
-  <si>
-    <t>Abnormal Behaviour;Alcohol Abuse;High Risk Sexual Behaviour</t>
-  </si>
-  <si>
-    <t>05-MAR-2015</t>
-  </si>
-  <si>
-    <t>Mylan</t>
-  </si>
-  <si>
-    <t>20-FEB-2015</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>GB-MYLANLABS-2015M1006693</t>
-  </si>
-  <si>
-    <t>Brookwell L, Hogan C, Healy D, Mangin D. Ninety-three cases of alcohol dependence following SSRI treatment. Int-J-Risk-Saf-Med 2014; 26(2):99-107.</t>
-  </si>
-  <si>
-    <t>Citalopram</t>
-  </si>
-  <si>
-    <t>Citalopram Hydrobromide</t>
-  </si>
-  <si>
-    <t>Alcohol Interaction;Loss Of Employment;Affect Lability;Crying;High Risk Sexual Behaviour;Physical Assault;Loss Of Libido;Anger;Somnambulism;Nightmare;Amnesia</t>
-  </si>
-  <si>
-    <t>GB-MYLANLABS-2015M1006706</t>
-  </si>
-  <si>
-    <t>Proscar;Propecia</t>
-  </si>
-  <si>
-    <t>Finasteride;Finasteride;Finasteride</t>
-  </si>
-  <si>
-    <t>Androgenetic Alopecia</t>
-  </si>
-  <si>
-    <t>Painful Ejaculation;Tinea Capitis;Anogenital Dysplasia;Skin Disorder;Weight Decreased;High Risk Sexual Behaviour;Depression;Crohn'S Disease;Dysuria;Fatigue;Skin Abrasion;Anxiety;Erectile Dysfunction;Wrong Technique In Product Usage Process;Ear Disorder;Prostatitis;Sexual Dysfunction;Asthma;Proctalgia;Off Label Use;Testicular Pain;Anogenital Warts</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>24-OCT-2014</t>
-  </si>
-  <si>
-    <t>74.83 KG</t>
-  </si>
-  <si>
-    <t>21-OCT-2014</t>
-  </si>
-  <si>
-    <t>US-009507513-1305USA009944</t>
-  </si>
-  <si>
-    <t>High Risk Sexual Behaviour;Temperature Intolerance;Erectile Dysfunction;Testicular Atrophy;Back Pain;Fatigue;Hypotension;Tinea Cruris;Fungal Infection;Drug Ineffective;Upper Respiratory Tract Infection;Sexual Dysfunction;Sinusitis;Testicular Disorder;Intervertebral Disc Degeneration;Acne;Libido Decreased;Weight Gain Poor;Oestradiol Decreased;Hypogonadism;Weight Decreased</t>
-  </si>
-  <si>
-    <t>14-NOV-2008</t>
-  </si>
-  <si>
-    <t>23-OCT-2014</t>
-  </si>
-  <si>
-    <t>81.18 KG</t>
-  </si>
-  <si>
-    <t>03-MAY-2013</t>
-  </si>
-  <si>
-    <t>US-009507513-1305USA000405</t>
-  </si>
-  <si>
-    <t>Amphetamine</t>
-  </si>
-  <si>
-    <t>Family Stress;Euphoric Mood;Nephrolithiasis;Urinary Incontinence;Foreign Body In Reproductive Tract;Urinary Tract Injury;Orchitis;Drug Abuse;Orchidectomy;Urethral Fistula;Stress At Work;Urinary Tract Infection;Haematuria;Depression;High Risk Sexual Behaviour</t>
-  </si>
-  <si>
-    <t>Hospitalized</t>
-  </si>
-  <si>
-    <t>14-OCT-2014</t>
-  </si>
-  <si>
-    <t>48 YR</t>
-  </si>
-  <si>
-    <t>Arbor</t>
-  </si>
-  <si>
-    <t>Health Professional ,Literature,Foreign</t>
-  </si>
-  <si>
-    <t>02-OCT-2014</t>
-  </si>
-  <si>
-    <t>ABR_01833_2014</t>
-  </si>
-  <si>
-    <t>Nuvaring</t>
-  </si>
-  <si>
-    <t>Ethinyl Estradiol\Etonogestrel</t>
-  </si>
-  <si>
-    <t>Exposure To Toxic Agent;Maternal Exposure Before Pregnancy;Obesity;Deep Vein Thrombosis;Pulmonary Embolism;Fatigue;Pain In Extremity;Depression;Anxiety;Epistaxis;Arthralgia;Sinusitis;High Risk Sexual Behaviour;Conjunctivitis;Gastrooesophageal Reflux Disease</t>
-  </si>
-  <si>
-    <t>30-DEC-2010</t>
-  </si>
-  <si>
-    <t>31-AUG-2014</t>
-  </si>
-  <si>
-    <t>87.66 KG</t>
-  </si>
-  <si>
-    <t>21-AUG-2014</t>
-  </si>
-  <si>
-    <t>10-FEB-2014</t>
-  </si>
-  <si>
-    <t>US-009507513-1402USA003505</t>
-  </si>
-  <si>
-    <t>Cervical Dysplasia;Anogenital Warts;Abortion Induced;High Risk Sexual Behaviour;Stress Urinary Incontinence;Pulmonary Embolism;Urinary Tract Infection;Maternal Exposure Before Pregnancy;Deep Vein Thrombosis;Gastrooesophageal Reflux Disease</t>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>101.13 KG</t>
+  </si>
+  <si>
+    <t>Flagyl</t>
+  </si>
+  <si>
+    <t>02-AUG-2012</t>
+  </si>
+  <si>
+    <t>US-009507513-2012SP011811</t>
+  </si>
+  <si>
+    <t>Ejaculation Disorder;Anxiety;Accidental Overdose;Alopecia;Lentigo;Temporomandibular Joint Syndrome;Sexual Dysfunction;Psychosexual Disorder;Asthma;Tooth Abscess;Oedema;Depression;Libido Decreased;Ejaculation Failure;Colitis;Nasal Septum Deviation;Dysuria;Herpes Simplex;Bipolar Disorder;Osteoarthritis;Dyspnoea;Diabetic Neuropathy;Abdominal Pain Upper;Mole Excision;Back Pain;Atrial Fibrillation;Genital Rash;Nausea;Respiratory Failure;Hypogonadism;Osteopenia;Benign Prostatic Hyperplasia;Adverse Event;Dysplastic Naevus;Hypothyroidism;Insomnia;Upper Respiratory Tract Infection;Hyperlipidaemia;Cognitive Disorder;Testicular Atrophy;Hyperhidrosis;Dysphonia;Attention Deficit/Hyperactivity Disorder;High Risk Sexual Behaviour;Proctalgia;Scrotal Varicose Veins;Feeling Abnormal;Melanocytic Naevus;Syncope;Feeling Hot;Gastrooesophageal Reflux Disease;Chest Pain;Reproductive Tract Disorder;Urinary Tract Infection;Rectal Haemorrhage;Bronchitis;Weight Increased;Vomiting;Testicular Pain;Herpes Zoster;Skin Graft;Otorrhoea;Gynaecomastia;Type 2 Diabetes Mellitus;Abdominal Pain Lower;Blood Testosterone Decreased;Haemorrhoids;Erectile Dysfunction;Pneumonia Aspiration;Skin Lesion;Dental Caries;Acne;Testicular Failure;Iron Deficiency Anaemia;Neck Pain;Migraine;Headache;Acute Sinusitis;Deep Vein Thrombosis;Suicide Attempt;Road Traffic Accident;Abdominal Pain</t>
   </si>
   <si>
     <t>Hospitalized;Other Outcomes;Disabled</t>
   </si>
   <si>
-    <t>23-NOV-2008</t>
-  </si>
-  <si>
-    <t>06-AUG-2014</t>
-  </si>
-  <si>
-    <t>28-JUL-2014</t>
-  </si>
-  <si>
-    <t>06-NOV-2012</t>
-  </si>
-  <si>
-    <t>US-009507513-1211USA000375</t>
-  </si>
-  <si>
-    <t>Amnesia;High Risk Sexual Behaviour;Affect Lability;Loss Of Libido;Somnambulism;Overdose;Alcohol Interaction;Crying;Aggression;Physical Assault;Job Dissatisfaction;Anger;Nightmare</t>
-  </si>
-  <si>
-    <t>30-JUL-2014</t>
-  </si>
-  <si>
-    <t>39 YR</t>
-  </si>
-  <si>
-    <t>Roxane</t>
-  </si>
-  <si>
-    <t>22-JUL-2014</t>
-  </si>
-  <si>
-    <t>GB-ROXANE LABORATORIES, INC.-2014-RO-01129RO</t>
-  </si>
-  <si>
-    <t>Stress;Stress Urinary Incontinence;Dyspnoea Exertional;Pain In Extremity;Deep Vein Thrombosis;Muscle Spasms;Headache;Arthralgia;Blood Cholesterol Increased;Bronchitis;Vena Cava Filter Insertion;Pelvic Pain;Hyperaesthesia;Cyst;Fatigue;Anxiety;Menstruation Irregular;Depression;Urinary Tract Infection;Gastritis;Urinary Tract Infection Bacterial;Hypoaesthesia;Urge Incontinence;High Risk Sexual Behaviour;Renal Cyst;Foot Deformity;Dyspareunia;Ear Pain;Paraesthesia;Diverticulum;Urethral Stenosis;Furuncle;Breast Cyst;Amenorrhoea;Breast Mass;Sleep Disorder</t>
-  </si>
-  <si>
-    <t>24-JUL-2014</t>
-  </si>
-  <si>
-    <t>87.9 KG</t>
-  </si>
-  <si>
-    <t>21-JUL-2014</t>
-  </si>
-  <si>
-    <t>US-009507513-2010SP040537</t>
-  </si>
-  <si>
-    <t>Enzyme Abnormality;Insomnia;Leukocytosis;Pharyngitis;Headache;Depression;Road Traffic Accident;Pelvic Pain;Vaginal Infection;Vulvovaginitis;Anxiety;Gene Mutation;Ovarian Cyst;Diarrhoea;Suicidal Ideation;Overweight;Deep Vein Thrombosis;Rhinitis Allergic;Breast Pain;Intervertebral Disc Protrusion;Impaired Fasting Glucose;Neck Pain;Vena Cava Filter Insertion;Breast Discharge;Coagulopathy;Thrombectomy;High Risk Sexual Behaviour;Pulmonary Embolism;Post-Traumatic Stress Disorder;Thrombolysis;Pruritus</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>101.13 KG</t>
-  </si>
-  <si>
-    <t>Flagyl</t>
-  </si>
-  <si>
-    <t>02-AUG-2012</t>
-  </si>
-  <si>
-    <t>US-009507513-2012SP011811</t>
-  </si>
-  <si>
-    <t>Mole Excision;Alopecia;Reproductive Tract Disorder;Vomiting;Psychosexual Disorder;Osteopenia;Bronchitis;Oedema;Dental Caries;Testicular Atrophy;Scrotal Varicose Veins;Neck Pain;Nausea;Pneumonia Aspiration;Gynaecomastia;Osteoarthritis;Asthma;Haemorrhoids;Skin Lesion;Rectal Haemorrhage;Cognitive Disorder;Syncope;Deep Vein Thrombosis;Nasal Septum Deviation;Feeling Abnormal;Ejaculation Failure;Acute Sinusitis;Proctalgia;Herpes Simplex;Dysphonia;Upper Respiratory Tract Infection;Chest Pain;Otorrhoea;Melanocytic Naevus;Skin Graft;Diabetic Neuropathy;Genital Rash;Hypogonadism;Abdominal Pain Lower;Attention Deficit/Hyperactivity Disorder;Insomnia;Headache;Ejaculation Disorder;Gastrooesophageal Reflux Disease;Depression;Respiratory Failure;Erectile Dysfunction;Bipolar Disorder;Libido Decreased;Testicular Pain;Atrial Fibrillation;Feeling Hot;Hyperlipidaemia;Adverse Event;Sexual Dysfunction;Migraine;Suicide Attempt;Dysuria;Temporomandibular Joint Syndrome;Accidental Overdose;Testicular Failure;Herpes Zoster;Hypothyroidism;Hyperhidrosis;Back Pain;Dysplastic Naevus;Lentigo;Type 2 Diabetes Mellitus;High Risk Sexual Behaviour;Iron Deficiency Anaemia;Benign Prostatic Hyperplasia;Tooth Abscess;Abdominal Pain Upper;Road Traffic Accident;Acne;Weight Increased;Blood Testosterone Decreased;Urinary Tract Infection;Anxiety;Colitis;Abdominal Pain;Dyspnoea</t>
-  </si>
-  <si>
-    <t>Disabled;Hospitalized;Other Outcomes</t>
-  </si>
-  <si>
     <t>DEC-1998</t>
   </si>
   <si>
@@ -640,7 +643,7 @@
     <t>US-009507513-1305USA009292</t>
   </si>
   <si>
-    <t>Gastrooesophageal Reflux Disease;Adverse Event;Cognitive Disorder;Penile Oedema;Polypectomy;Headache;Inguinal Hernia Repair;High Risk Sexual Behaviour;Impaired Fasting Glucose;Varicose Vein Operation;Back Injury;Hyperlipidaemia;Substance Use;Nocturia;Iron Deficiency Anaemia;Hiatus Hernia;Erectile Dysfunction;Protein Urine Present;Libido Decreased;Urinary Hesitation;Fatigue;Haematuria;Urethral Stenosis;Flushing;Gastritis;Chest Pain;Sexual Dysfunction</t>
+    <t>Back Injury;Fatigue;Varicose Vein Operation;Hiatus Hernia;High Risk Sexual Behaviour;Penile Oedema;Chest Pain;Inguinal Hernia Repair;Nocturia;Impaired Fasting Glucose;Substance Use;Haematuria;Adverse Event;Urethral Stenosis;Gastrooesophageal Reflux Disease;Headache;Gastritis;Polypectomy;Libido Decreased;Urinary Hesitation;Protein Urine Present;Hyperlipidaemia;Erectile Dysfunction;Cognitive Disorder;Flushing;Sexual Dysfunction;Iron Deficiency Anaemia</t>
   </si>
   <si>
     <t>2004</t>
@@ -664,10 +667,10 @@
     <t>US-009507513-1202USA00567</t>
   </si>
   <si>
-    <t>Methamphetamine;Acetaminophen;Cannabis Sativa Subsp. Indica Top;Buprenorphine;Buprenorphine Hydrochloride\Naloxone Hydrochloride</t>
-  </si>
-  <si>
-    <t>Treponema Test Positive;Cytomegalovirus Infection;Palatal Disorder;Fatigue;Hepatitis B;Malaise;Jaundice;Acute Hepatitis B;Biopsy Liver Abnormal;Thermal Burn;Secondary Syphilis;Liver Tenderness;High Risk Sexual Behaviour;Drug-Induced Liver Injury;Hepatomegaly;Syphilis;Drug Abuse;Ultrasound Liver Abnormal;Lymphadenopathy;Biliary Dilatation;Abdominal Pain Upper;Rash Papulosquamous;Poor Dental Condition;Ocular Icterus</t>
+    <t>Acetaminophen;Cannabis Sativa Subsp. Indica Top;Buprenorphine Hydrochloride\Naloxone Hydrochloride;Buprenorphine;Methamphetamine</t>
+  </si>
+  <si>
+    <t>Ultrasound Liver Abnormal;Liver Tenderness;Thermal Burn;Treponema Test Positive;Hepatitis B;High Risk Sexual Behaviour;Acute Hepatitis B;Biliary Dilatation;Fatigue;Jaundice;Lymphadenopathy;Drug Abuse;Palatal Disorder;Ocular Icterus;Cytomegalovirus Infection;Biopsy Liver Abnormal;Syphilis;Drug-Induced Liver Injury;Rash Papulosquamous;Abdominal Pain Upper;Poor Dental Condition;Malaise;Secondary Syphilis;Hepatomegaly</t>
   </si>
   <si>
     <t>OCT-2010</t>
@@ -703,10 +706,7 @@
     <t>Crohn'S Disease;Product Used For Unknown Indication</t>
   </si>
   <si>
-    <t>High Risk Sexual Behaviour;Herpes Simplex;Microcytic Anaemia;Rash Papulosquamous;Thrombocytopenia;Hypochromic Anaemia</t>
-  </si>
-  <si>
-    <t>Hospitalized;Other Outcomes</t>
+    <t>Thrombocytopenia;Hypochromic Anaemia;High Risk Sexual Behaviour;Rash Papulosquamous;Herpes Simplex;Microcytic Anaemia</t>
   </si>
   <si>
     <t>JUN-2013</t>
@@ -733,7 +733,7 @@
     <t>IL-ABBVIE-13P-082-1142254-00</t>
   </si>
   <si>
-    <t>Inappropriate Schedule Of Product Administration;High Risk Sexual Behaviour</t>
+    <t>High Risk Sexual Behaviour;Inappropriate Schedule Of Product Administration</t>
   </si>
   <si>
     <t>11-NOV-2013</t>
@@ -754,7 +754,7 @@
     <t>Gastritis;Hot Flush;Product Used For Unknown Indication</t>
   </si>
   <si>
-    <t>Mood Altered;Mood Swings;Muscle Spasms;Fatigue;Back Pain;High Risk Sexual Behaviour;Metrorrhagia</t>
+    <t>Mood Swings;High Risk Sexual Behaviour;Back Pain;Fatigue;Mood Altered;Muscle Spasms;Metrorrhagia</t>
   </si>
   <si>
     <t>AUG-2013</t>
@@ -778,7 +778,7 @@
     <t>US-ABBVIE-13P-163-1151005-00</t>
   </si>
   <si>
-    <t>High Risk Sexual Behaviour;Microcytic Anaemia;Thrombocytopenia;Herpes Simplex;Rash Papulosquamous;Hypochromic Anaemia</t>
+    <t>Rash Papulosquamous;Hypochromic Anaemia;Thrombocytopenia;High Risk Sexual Behaviour;Microcytic Anaemia;Herpes Simplex</t>
   </si>
   <si>
     <t>12-SEP-2013</t>
@@ -802,7 +802,7 @@
     <t>Bipolar Disorder;Mania;Obsessive-Compulsive Disorder</t>
   </si>
   <si>
-    <t>High Risk Sexual Behaviour;Impulsive Behaviour;Insomnia;Road Traffic Accident;Economic Problem;Mania;Off Label Use;Alcohol Abuse</t>
+    <t>Mania;Economic Problem;Impulsive Behaviour;Alcohol Abuse;High Risk Sexual Behaviour;Off Label Use;Insomnia;Road Traffic Accident</t>
   </si>
   <si>
     <t>OCT-2004</t>
@@ -829,7 +829,7 @@
     <t>DK-PFIZER INC-2012326409</t>
   </si>
   <si>
-    <t>Pain In Extremity;Nausea;Deep Vein Thrombosis;Haematuria;Urinary Tract Infection;Muscle Spasms;Depression;Abdominal Pain;Menstruation Irregular;Headache;Diverticulum;Diarrhoea;Insomnia;Renal Cyst;Foot Deformity;High Risk Sexual Behaviour;Arthralgia;Mammogram Abnormal;Cough;Anxiety</t>
+    <t>Mammogram Abnormal;Diarrhoea;Arthralgia;Cough;Menstruation Irregular;Anxiety;Urinary Tract Infection;Diverticulum;Muscle Spasms;Haematuria;Pain In Extremity;High Risk Sexual Behaviour;Insomnia;Foot Deformity;Headache;Nausea;Renal Cyst;Depression;Abdominal Pain;Deep Vein Thrombosis</t>
   </si>
   <si>
     <t>AUG-2008</t>
@@ -862,7 +862,7 @@
     <t>Post Coital Contraception</t>
   </si>
   <si>
-    <t>Maternal Exposure During Pregnancy;High Risk Sexual Behaviour;Pregnancy</t>
+    <t>High Risk Sexual Behaviour;Maternal Exposure During Pregnancy;Pregnancy</t>
   </si>
   <si>
     <t>06-OCT-2011</t>
@@ -892,7 +892,7 @@
     <t>Esomeprazole Magnesium</t>
   </si>
   <si>
-    <t>High Risk Sexual Behaviour;Pain In Extremity;Erectile Dysfunction;Vitiligo;Essential Hypertension;Back Pain</t>
+    <t>Back Pain;Vitiligo;Essential Hypertension;Pain In Extremity;High Risk Sexual Behaviour;Erectile Dysfunction</t>
   </si>
   <si>
     <t>02-MAY-2011</t>
@@ -913,7 +913,7 @@
     <t>Paroxetine Hydrochloride</t>
   </si>
   <si>
-    <t>Pyromania;Alcohol Abuse;High Risk Sexual Behaviour;Claustrophobia;Alcoholism;Abnormal Behaviour</t>
+    <t>Claustrophobia;High Risk Sexual Behaviour;Abnormal Behaviour;Alcohol Abuse;Pyromania;Alcoholism</t>
   </si>
   <si>
     <t>28-JAN-2011</t>
@@ -940,7 +940,7 @@
     <t>Aggression</t>
   </si>
   <si>
-    <t>Overdose;Fear;Head Injury;Road Traffic Accident;Affective Disorder;Personality Change;High Risk Sexual Behaviour;Amnesia;Judgement Impaired;Emotional Disorder</t>
+    <t>Road Traffic Accident;Affective Disorder;High Risk Sexual Behaviour;Head Injury;Fear;Judgement Impaired;Personality Change;Emotional Disorder;Amnesia;Overdose</t>
   </si>
   <si>
     <t>JUL-2007</t>
@@ -970,7 +970,7 @@
     <t>Anxiety</t>
   </si>
   <si>
-    <t>Abnormal Behaviour;Personality Change;Partner Stress;High Risk Sexual Behaviour</t>
+    <t>High Risk Sexual Behaviour;Abnormal Behaviour;Personality Change;Partner Stress</t>
   </si>
   <si>
     <t>01-OCT-2007</t>
@@ -991,10 +991,10 @@
     <t>Insomnia</t>
   </si>
   <si>
-    <t>Impaired Work Ability;Hiv Test Positive;Alcohol Abuse;Personality Change;Confusional State;Family Stress;Acute Hepatic Failure;High Risk Sexual Behaviour;Loss Of Consciousness;Coma;Emotional Disorder</t>
-  </si>
-  <si>
-    <t>Other Outcomes;Hospitalized;Life Threatening;Disabled;Required Intervention</t>
+    <t>Impaired Work Ability;Confusional State;Personality Change;Family Stress;Coma;Loss Of Consciousness;Acute Hepatic Failure;Alcohol Abuse;Hiv Test Positive;Emotional Disorder;High Risk Sexual Behaviour</t>
+  </si>
+  <si>
+    <t>Hospitalized;Life Threatening;Disabled;Other Outcomes;Required Intervention</t>
   </si>
   <si>
     <t>06-MAY-2008</t>
@@ -1009,16 +1009,16 @@
     <t>270 LB</t>
   </si>
   <si>
-    <t>Plan B One-Step;Ortho Tri Cyclen</t>
-  </si>
-  <si>
-    <t>Ethinyl Estradiol\Norgestimate;Levonorgestrel</t>
+    <t>Ortho Tri Cyclen;Plan B One-Step</t>
+  </si>
+  <si>
+    <t>Levonorgestrel;Ethinyl Estradiol\Norgestimate</t>
   </si>
   <si>
     <t>Contraception;Post Coital Contraception</t>
   </si>
   <si>
-    <t>Headache;Fatigue;Vomiting;Chills;Maternal Exposure During Pregnancy;Nausea;High Risk Sexual Behaviour;Abortion Spontaneous;Pregnancy After Post Coital Contraception;Drug Ineffective;Pelvic Pain</t>
+    <t>Pregnancy After Post Coital Contraception;Vomiting;Chills;Drug Ineffective;Headache;Nausea;Abortion Spontaneous;High Risk Sexual Behaviour;Pelvic Pain;Fatigue;Maternal Exposure During Pregnancy</t>
   </si>
   <si>
     <t>22-OCT-2009</t>
@@ -1048,7 +1048,7 @@
     <t>Zolpidem Tartrate</t>
   </si>
   <si>
-    <t>Amnesia;High Risk Sexual Behaviour</t>
+    <t>High Risk Sexual Behaviour;Amnesia</t>
   </si>
   <si>
     <t>19-OCT-2009</t>
@@ -1072,10 +1072,10 @@
     <t>Anxiety;Depression</t>
   </si>
   <si>
-    <t>Suicidal Ideation;Libido Decreased;Death Of Relative;Drug Effect Decreased;Imprisonment;High Risk Sexual Behaviour;Abnormal Behaviour;Libido Increased;Sexual Abuse;Personality Change;Flat Affect;Agitation;Aggression</t>
-  </si>
-  <si>
-    <t>Life Threatening;Other Outcomes</t>
+    <t>Libido Decreased;Libido Increased;Aggression;Sexual Abuse;Suicidal Ideation;Drug Effect Decreased;Death Of Relative;Agitation;High Risk Sexual Behaviour;Abnormal Behaviour;Personality Change;Imprisonment;Flat Affect</t>
+  </si>
+  <si>
+    <t>Other Outcomes;Life Threatening</t>
   </si>
   <si>
     <t>01-APR-2009</t>
@@ -1096,7 +1096,7 @@
     <t>Bipolar Disorder;Myalgia</t>
   </si>
   <si>
-    <t>Mood Swings;Agitation;Thinking Abnormal;Paradoxical Drug Reaction;Off Label Use;Hostility;High Risk Sexual Behaviour;Suicide Attempt;Personality Change;Aggression;Abnormal Behaviour</t>
+    <t>Abnormal Behaviour;Mood Swings;Hostility;Off Label Use;Suicide Attempt;Paradoxical Drug Reaction;Aggression;Personality Change;Thinking Abnormal;High Risk Sexual Behaviour;Agitation</t>
   </si>
   <si>
     <t>Hospitalized;Life Threatening</t>
@@ -1117,13 +1117,13 @@
     <t>Amoxil</t>
   </si>
   <si>
-    <t>Amoxicillin;Levonorgestrel;Dicloxacillin Sodium</t>
+    <t>Amoxicillin;Dicloxacillin Sodium;Levonorgestrel</t>
   </si>
   <si>
     <t>Contraception;Otitis Media</t>
   </si>
   <si>
-    <t>High Risk Sexual Behaviour;Back Pain;Menstruation Delayed;Dizziness;Headache;Otitis Media;Nausea</t>
+    <t>Headache;Dizziness;Menstruation Delayed;High Risk Sexual Behaviour;Nausea;Back Pain;Otitis Media</t>
   </si>
   <si>
     <t>06-MAY-2009</t>
@@ -1144,7 +1144,7 @@
     <t>Smoking Cessation Therapy</t>
   </si>
   <si>
-    <t>High Risk Sexual Behaviour;Irritability;Antisocial Behaviour;Mood Swings</t>
+    <t>Mood Swings;High Risk Sexual Behaviour;Irritability;Antisocial Behaviour</t>
   </si>
   <si>
     <t>01-SEP-2008</t>
@@ -1159,7 +1159,7 @@
     <t>136.5 KG</t>
   </si>
   <si>
-    <t>Unspecified Ingredient;Zoloft</t>
+    <t>Zoloft;Unspecified Ingredient</t>
   </si>
   <si>
     <t>16-DEC-2008</t>
@@ -1198,7 +1198,7 @@
     <t>Mirapex</t>
   </si>
   <si>
-    <t>Compulsive Shopping;Alcohol Use;Drug Effect Decreased;High Risk Sexual Behaviour;Abnormal Behaviour;Dependence;Personality Change</t>
+    <t>High Risk Sexual Behaviour;Abnormal Behaviour;Drug Effect Decreased;Alcohol Use;Compulsive Shopping;Dependence;Personality Change</t>
   </si>
   <si>
     <t>11-APR-2008</t>
@@ -1219,7 +1219,7 @@
     <t>Bipolar Disorder</t>
   </si>
   <si>
-    <t>Intentional Self-Injury;Abnormal Behaviour;Mania;Therapeutic Response Unexpected;Aggression;Agitation;High Risk Sexual Behaviour</t>
+    <t>Mania;Agitation;High Risk Sexual Behaviour;Intentional Self-Injury;Aggression;Therapeutic Response Unexpected;Abnormal Behaviour</t>
   </si>
   <si>
     <t>20-AUG-2008</t>
@@ -1243,7 +1243,7 @@
     <t>Parkinson'S Disease</t>
   </si>
   <si>
-    <t>Gambling;Sexual Relationship Change;Hypersexuality;Partner Stress;Confusional State;Sleep Attacks;Economic Problem;High Risk Sexual Behaviour;Amnesia</t>
+    <t>Sleep Attacks;Amnesia;Partner Stress;Gambling;Economic Problem;High Risk Sexual Behaviour;Sexual Relationship Change;Hypersexuality;Confusional State</t>
   </si>
   <si>
     <t>01-JAN-2004</t>
@@ -1255,7 +1255,7 @@
     <t>190 LB</t>
   </si>
   <si>
-    <t>Aggression;Anger;Abnormal Behaviour;Verbal Abuse;High Risk Sexual Behaviour</t>
+    <t>Verbal Abuse;Abnormal Behaviour;Anger;Aggression;High Risk Sexual Behaviour</t>
   </si>
   <si>
     <t>17-AUG-2007</t>
@@ -1267,7 +1267,7 @@
     <t>A0670168A</t>
   </si>
   <si>
-    <t>Libido Increased;Abnormal Behaviour;High Risk Sexual Behaviour;Promiscuity</t>
+    <t>Libido Increased;Promiscuity;High Risk Sexual Behaviour;Abnormal Behaviour</t>
   </si>
   <si>
     <t>01-FEB-2006</t>
@@ -1321,7 +1321,7 @@
     <t>Panic Disorder</t>
   </si>
   <si>
-    <t>High Risk Sexual Behaviour;Hypomania;Disinhibition</t>
+    <t>High Risk Sexual Behaviour;Disinhibition;Hypomania</t>
   </si>
   <si>
     <t>10-JAN-2006</t>
@@ -1348,7 +1348,7 @@
     <t>Multiple Sclerosis</t>
   </si>
   <si>
-    <t>Amnestic Disorder;Multiple Sclerosis Relapse;Paranoia;Thinking Abnormal;Drug Abuser;High Risk Sexual Behaviour;Emotional Disorder;Delusion;Dependence;Personality Change Due To A General Medical Condition;Autism Spectrum Disorder;Social Problem;Apathy;Injury;Acute Psychosis</t>
+    <t>Emotional Disorder;Dependence;Paranoia;Delusion;Amnestic Disorder;Personality Change Due To A General Medical Condition;Apathy;Autism Spectrum Disorder;Social Problem;Multiple Sclerosis Relapse;High Risk Sexual Behaviour;Thinking Abnormal;Drug Abuser;Acute Psychosis;Injury</t>
   </si>
   <si>
     <t>26-OCT-2005</t>
@@ -1375,13 +1375,13 @@
     <t>Lamotrigine;Citalopram Hydrobromide</t>
   </si>
   <si>
-    <t>Gambling;Hypomania;Impaired Work Ability;Impulsive Behaviour;High Risk Sexual Behaviour</t>
+    <t>Gambling;High Risk Sexual Behaviour;Impaired Work Ability;Hypomania;Impulsive Behaviour</t>
   </si>
   <si>
     <t>08-FEB-2005</t>
   </si>
   <si>
-    <t>Aspirin;Atorvastatin Calcium;Ramipril</t>
+    <t>Atorvastatin Calcium;Ramipril;Aspirin</t>
   </si>
   <si>
     <t>21-JAN-2005</t>
@@ -1390,7 +1390,7 @@
     <t>B0365811A</t>
   </si>
   <si>
-    <t>High Risk Sexual Behaviour;Libido Increased;Personality Change;Insomnia;Alcohol Use;Sexual Activity Increased;Judgement Impaired;Abnormal Behaviour</t>
+    <t>High Risk Sexual Behaviour;Alcohol Use;Judgement Impaired;Libido Increased;Abnormal Behaviour;Personality Change;Sexual Activity Increased;Insomnia</t>
   </si>
   <si>
     <t>B0365809A</t>
@@ -1405,10 +1405,10 @@
     <t>Fibromyalgia;Myofascial Pain Syndrome</t>
   </si>
   <si>
-    <t>Mania;High Risk Sexual Behaviour</t>
-  </si>
-  <si>
-    <t>Required Intervention;Life Threatening;Other Outcomes</t>
+    <t>High Risk Sexual Behaviour;Mania</t>
+  </si>
+  <si>
+    <t>Life Threatening;Other Outcomes;Required Intervention</t>
   </si>
   <si>
     <t>31-AUG-2004</t>
@@ -1429,7 +1429,7 @@
     <t>Seizure</t>
   </si>
   <si>
-    <t>Perseveration;Disinhibition;High Risk Sexual Behaviour;Abnormal Behaviour;Sexual Activity Increased;Aggression</t>
+    <t>Perseveration;Disinhibition;Abnormal Behaviour;Sexual Activity Increased;Aggression;High Risk Sexual Behaviour</t>
   </si>
   <si>
     <t>06-OCT-2003</t>
@@ -1444,7 +1444,7 @@
     <t>Novartis</t>
   </si>
   <si>
-    <t>Budesonide\Formoterol Fumarate;Allopurinol;Pulmicort Flexhaler;Diazepam;Colace;Aspirin;Domperidone;Acetaminophen;Warfarin Sodium;Magnesium Hydroxide;Selsun Blue Medicated;Dulcolax (Bisacodyl);Losec;Phenytoin;Lactulose;Tylenol;Dilantin</t>
+    <t>Allopurinol;Diazepam;Losec;Phenytoin;Tylenol;Acetaminophen;Selsun Blue Medicated;Dilantin;Warfarin Sodium;Dulcolax (Bisacodyl);Colace;Budesonide\Formoterol Fumarate;Aspirin;Domperidone;Magnesium Hydroxide;Lactulose;Pulmicort Flexhaler</t>
   </si>
   <si>
     <t>16-DEC-2003</t>
@@ -1456,7 +1456,7 @@
     <t>PHBS2003CA11766</t>
   </si>
   <si>
-    <t>Nightmare;Antisocial Behaviour;Intentional Self-Injury;Personality Change;High Risk Sexual Behaviour</t>
+    <t>Personality Change;Intentional Self-Injury;High Risk Sexual Behaviour;Nightmare;Antisocial Behaviour</t>
   </si>
   <si>
     <t>24-APR-2003</t>
@@ -1480,7 +1480,7 @@
     <t>Schizoaffective Disorder</t>
   </si>
   <si>
-    <t>Weight Increased;Amenorrhoea;Dyspepsia;Depression;Polycystic Ovaries;Insomnia;High Risk Sexual Behaviour;Abnormal Behaviour;Blood Cholesterol Increased;Fall;Paranoia;Drug Level Increased;Proteus Infection;Haemoglobin Decreased</t>
+    <t>Paranoia;Dyspepsia;Drug Level Increased;Abnormal Behaviour;Haemoglobin Decreased;Proteus Infection;Fall;Polycystic Ovaries;High Risk Sexual Behaviour;Depression;Blood Cholesterol Increased;Insomnia;Weight Increased;Amenorrhoea</t>
   </si>
   <si>
     <t>03-MAR-2002</t>
@@ -1495,7 +1495,7 @@
     <t>272 LB</t>
   </si>
   <si>
-    <t>Zyprexa;Paxil</t>
+    <t>Paxil;Zyprexa</t>
   </si>
   <si>
     <t>03-OCT-2002</t>
@@ -1510,7 +1510,7 @@
     <t>Sertraline Hydrochloride;Alcohol</t>
   </si>
   <si>
-    <t>Impulsive Behaviour;Mood Swings;Social Problem;Road Traffic Accident;Bipolar I Disorder;Suicide Attempt;Asocial Behaviour;Abnormal Behaviour;Amnesia;High Risk Sexual Behaviour;Judgement Impaired;Irritability;Apathy;Divorced;Hostility</t>
+    <t>Suicide Attempt;Social Problem;Irritability;Mood Swings;Asocial Behaviour;Judgement Impaired;Road Traffic Accident;Impulsive Behaviour;Hostility;Amnesia;High Risk Sexual Behaviour;Apathy;Bipolar I Disorder;Divorced;Abnormal Behaviour</t>
   </si>
   <si>
     <t>Required Intervention</t>
@@ -1549,7 +1549,7 @@
     <t>Hiv Infection</t>
   </si>
   <si>
-    <t>Depressed Level Of Consciousness;Abnormal Behaviour;Delirium;Pyrexia;High Risk Sexual Behaviour;Sedation;Feeling Jittery;Hallucination;Visual Impairment;Confusional State;Disorientation</t>
+    <t>High Risk Sexual Behaviour;Pyrexia;Disorientation;Abnormal Behaviour;Visual Impairment;Depressed Level Of Consciousness;Delirium;Feeling Jittery;Hallucination;Confusional State;Sedation</t>
   </si>
   <si>
     <t>11-SEP-1998</t>
@@ -1564,7 +1564,7 @@
     <t>Health Professional ,Study,Foreign</t>
   </si>
   <si>
-    <t>Didanosine;Saquinavir;Efavirenz;Ritonavir;Stavudine;Hydroxyurea;Lamivudine</t>
+    <t>Hydroxyurea;Saquinavir;Didanosine;Lamivudine;Ritonavir;Efavirenz;Stavudine</t>
   </si>
   <si>
     <t>11-FEB-1999</t>
@@ -3586,13 +3586,13 @@
         <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="H23" t="s">
         <v>41</v>
       </c>
       <c r="I23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s">
         <v>189</v>
@@ -3604,7 +3604,7 @@
         <v>32</v>
       </c>
       <c r="M23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N23" t="s">
         <v>46</v>
@@ -3616,13 +3616,13 @@
         <v>32</v>
       </c>
       <c r="Q23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R23" t="s">
         <v>191</v>
       </c>
       <c r="S23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T23" t="s">
         <v>36</v>
@@ -3631,7 +3631,7 @@
         <v>32</v>
       </c>
       <c r="V23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W23" t="s">
         <v>24</v>
@@ -3654,22 +3654,22 @@
         <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
       </c>
       <c r="I24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s">
         <v>44</v>
@@ -3678,7 +3678,7 @@
         <v>32</v>
       </c>
       <c r="M24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N24" t="s">
         <v>46</v>
@@ -3690,13 +3690,13 @@
         <v>32</v>
       </c>
       <c r="Q24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="S24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="T24" t="s">
         <v>36</v>
@@ -3705,7 +3705,7 @@
         <v>32</v>
       </c>
       <c r="V24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="W24" t="s">
         <v>24</v>
@@ -3728,7 +3728,7 @@
         <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
@@ -3740,10 +3740,10 @@
         <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K25" t="s">
         <v>44</v>
@@ -3752,7 +3752,7 @@
         <v>32</v>
       </c>
       <c r="M25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N25" t="s">
         <v>46</v>
@@ -3764,13 +3764,13 @@
         <v>32</v>
       </c>
       <c r="Q25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="T25" t="s">
         <v>36</v>
@@ -3779,7 +3779,7 @@
         <v>32</v>
       </c>
       <c r="V25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="W25" t="s">
         <v>24</v>
@@ -3796,13 +3796,13 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D26" t="s">
         <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
@@ -3814,22 +3814,22 @@
         <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K26" t="s">
         <v>44</v>
       </c>
       <c r="L26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M26" t="s">
         <v>32</v>
       </c>
       <c r="N26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O26" t="s">
         <v>47</v>
@@ -3841,10 +3841,10 @@
         <v>24</v>
       </c>
       <c r="R26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="T26" t="s">
         <v>36</v>
@@ -3853,10 +3853,10 @@
         <v>32</v>
       </c>
       <c r="V26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="W26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="X26" t="s">
         <v>24</v>
@@ -3867,22 +3867,22 @@
         <v>9798533</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c r="H27" t="s">
         <v>41</v>
@@ -4089,13 +4089,13 @@
         <v>9504615</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E30" t="s">
         <v>254</v>
@@ -4104,7 +4104,7 @@
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="H30" t="s">
         <v>41</v>
